--- a/Base Atualização_sample.xlsx
+++ b/Base Atualização_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F68150485AA30353B34C655FA72DD86C420EABCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D596B4B-82BC-4A62-A992-769592BCFFFC}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F68150485AA30353B34C655FA72DD86C420EABCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC580DDC-8259-4AD7-A52C-C62438939DFF}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>10|N/A|N/A|4|N/A|N/A|N/A|6|N/A|N/A|N/A|N/A</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>1;3|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A</t>
+  </si>
+  <si>
+    <t>To Enable Attribute2 and Attribute4, without changing any other  fattribute from Group1 And Don't change any other Group:</t>
+  </si>
+  <si>
+    <t>M;2;4|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A|N/A</t>
   </si>
 </sst>
 </file>
@@ -146,15 +152,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>16223</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>53868</xdr:rowOff>
+      <xdr:colOff>218153</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -177,8 +183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="647700"/>
-          <a:ext cx="11345258" cy="6098433"/>
+          <a:off x="457200" y="1179195"/>
+          <a:ext cx="11345258" cy="6100338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEDC41D-664E-4201-A797-BEEB94F41EE3}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="A2:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +489,16 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -562,15 +578,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010013B8B80017FA524197656F494A6775CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c301d6068a6f0ed3066f1327079aafe3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="627417c2-d476-470f-94a1-abe6b0a7640b" xmlns:ns3="60dab795-bc50-4a47-a15e-8b2b876e6ec8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de78aa4cf1c2821ae0f4f908b4c23eb2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -836,6 +843,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -850,14 +866,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9110D64-6C92-4411-B858-1C7B7B9874A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C38CF44-EAC4-4421-9434-96A7543434A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -877,6 +885,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9110D64-6C92-4411-B858-1C7B7B9874A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70873798-81B3-412D-8956-0EB91F673E40}">
   <ds:schemaRefs>
